--- a/reports/users_data.xlsx
+++ b/reports/users_data.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>694</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2024-08-26T11:11:05.336Z</t>
+          <t>2024-08-26T12:51:02.049Z</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -498,12 +498,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>994</t>
+          <t>485</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2024-08-26T11:11:05.677Z</t>
+          <t>2024-08-26T12:51:02.424Z</t>
         </is>
       </c>
       <c r="E3" t="n">
@@ -523,12 +523,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>742</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2024-08-26T11:11:06.034Z</t>
+          <t>2024-08-26T12:51:02.843Z</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -548,12 +548,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>501</t>
+          <t>714</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2024-08-26T11:11:06.399Z</t>
+          <t>2024-08-26T12:51:03.235Z</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -573,12 +573,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>66</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2024-08-26T11:11:06.762Z</t>
+          <t>2024-08-26T12:51:03.657Z</t>
         </is>
       </c>
       <c r="E6" t="n">
